--- a/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/データモデル設計書_第1.1版.xlsx
+++ b/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/データモデル設計書_第1.1版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EC29CE-446A-F04D-A8C7-19761A125ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D94F3EE-4C5A-5E4C-B8AB-24480BC371B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -825,6 +825,13 @@
     <t>各エンティティの属性名等の追加</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中西</t>
+    <rPh sb="0" eb="2">
+      <t>ナk</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1912,32 +1919,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2013,23 +2035,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,60 +2118,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2834,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:S38"/>
+    <sheetView topLeftCell="A29" zoomScale="158" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:P11"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -3257,16 +3264,16 @@
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="53"/>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="116">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121">
         <v>43600</v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="115"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="120"/>
       <c r="U3" s="53"/>
       <c r="V3" s="53"/>
       <c r="W3" s="54"/>
@@ -3357,12 +3364,12 @@
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="99"/>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
@@ -3380,61 +3387,63 @@
     </row>
     <row r="8" spans="1:167" ht="15" customHeight="1">
       <c r="A8" s="52"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="132" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
-      <c r="O8" s="114" t="s">
+      <c r="O8" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="114" t="s">
+      <c r="P8" s="120"/>
+      <c r="Q8" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="115"/>
-      <c r="S8" s="114" t="s">
+      <c r="R8" s="120"/>
+      <c r="S8" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="115"/>
+      <c r="T8" s="120"/>
       <c r="V8" s="53"/>
       <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:167" ht="15" customHeight="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="137"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="138" t="s">
+      <c r="O9" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="139"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="143" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="144"/>
       <c r="V9" s="53"/>
       <c r="W9" s="54"/>
     </row>
@@ -3453,12 +3462,12 @@
       <c r="L10" s="53"/>
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="141"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="146"/>
       <c r="V10" s="53"/>
       <c r="W10" s="54"/>
     </row>
@@ -3477,12 +3486,12 @@
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="143"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="148"/>
       <c r="V11" s="60"/>
       <c r="W11" s="54"/>
     </row>
@@ -3513,79 +3522,79 @@
     </row>
     <row r="13" spans="1:167" ht="15" customHeight="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
       <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:167" ht="15" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
       <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:167" ht="15" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
       <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:167" ht="15" customHeight="1">
@@ -4092,401 +4101,401 @@
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1">
       <c r="A36" s="52"/>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="105" t="s">
+      <c r="C36" s="151"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="105" t="s">
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="105" t="s">
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="U36" s="106"/>
-      <c r="V36" s="107"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="152"/>
       <c r="W36" s="54"/>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1">
       <c r="A37" s="52"/>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108">
+      <c r="C37" s="151"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="153">
         <v>43600</v>
       </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="105" t="s">
+      <c r="F37" s="154"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="105" t="s">
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="U37" s="106"/>
-      <c r="V37" s="107"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="152"/>
       <c r="W37" s="54"/>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108">
+      <c r="C38" s="151"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="153">
         <v>43602</v>
       </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="105" t="s">
+      <c r="F38" s="154"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="105" t="s">
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="U38" s="106"/>
-      <c r="V38" s="107"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="152"/>
       <c r="W38" s="54"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="107"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="152"/>
       <c r="W39" s="54"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="107"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151"/>
+      <c r="S40" s="152"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="152"/>
       <c r="W40" s="54"/>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="107"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="150"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="152"/>
       <c r="W41" s="54"/>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="150"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="152"/>
       <c r="W42" s="54"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="107"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="150"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="152"/>
       <c r="W43" s="54"/>
     </row>
     <row r="44" spans="1:23" ht="15" customHeight="1">
       <c r="A44" s="52"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="107"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="150"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="152"/>
       <c r="W44" s="54"/>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1">
       <c r="A45" s="52"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="107"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151"/>
+      <c r="S45" s="152"/>
+      <c r="T45" s="150"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="152"/>
       <c r="W45" s="54"/>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1">
       <c r="A46" s="52"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="105"/>
-      <c r="U46" s="106"/>
-      <c r="V46" s="107"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="151"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="150"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="152"/>
       <c r="W46" s="54"/>
     </row>
     <row r="47" spans="1:23" ht="15" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="107"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="150"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="152"/>
       <c r="W47" s="54"/>
     </row>
     <row r="48" spans="1:23" ht="15" customHeight="1">
       <c r="A48" s="52"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="107"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="152"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="152"/>
       <c r="W48" s="54"/>
     </row>
     <row r="49" spans="1:23" ht="15" customHeight="1">
       <c r="A49" s="52"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="107"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="152"/>
+      <c r="T49" s="150"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="152"/>
       <c r="W49" s="54"/>
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1">
       <c r="A50" s="52"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="156"/>
       <c r="W50" s="54"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1">
@@ -4516,6 +4525,67 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="B13:V15"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:S36"/>
+    <mergeCell ref="T36:V36"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="E7:H7"/>
@@ -4527,67 +4597,6 @@
     <mergeCell ref="Q9:R11"/>
     <mergeCell ref="E8:L9"/>
     <mergeCell ref="S9:T11"/>
-    <mergeCell ref="B13:V15"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -4604,8 +4613,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="C16" sqref="C16"/>
@@ -4623,10 +4632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="149"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="23" t="s">
         <v>65</v>
       </c>
@@ -4639,10 +4648,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="149"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
@@ -4655,10 +4664,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="23" t="s">
         <v>68</v>
       </c>
@@ -4671,10 +4680,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="25" t="s">
         <v>24</v>
       </c>
@@ -4687,10 +4696,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="23"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28" t="s">
@@ -4731,10 +4740,10 @@
       <c r="D8" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="147"/>
+      <c r="F8" s="161"/>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="38">
@@ -4747,8 +4756,8 @@
         <v>72</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1">
       <c r="A10" s="38">
@@ -4761,8 +4770,8 @@
         <v>77</v>
       </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1">
       <c r="A11" s="38">
@@ -4775,8 +4784,8 @@
         <v>78</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1">
       <c r="A12" s="38">
@@ -4789,8 +4798,8 @@
         <v>79</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1">
       <c r="A13" s="38">
@@ -4803,80 +4812,80 @@
         <v>80</v>
       </c>
       <c r="D13" s="38"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="145"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="145"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
     </row>
     <row r="18" spans="1:6" ht="21.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:6" ht="21.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
     </row>
     <row r="21" spans="1:6" ht="21.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="21.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
     </row>
     <row r="23" spans="1:6" ht="21.75" customHeight="1">
       <c r="A23" s="39" t="s">
@@ -4889,216 +4898,216 @@
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="14">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="174"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="116"/>
     </row>
     <row r="25" spans="1:6" ht="14">
-      <c r="A25" s="169"/>
-      <c r="B25" s="172" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="174"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="116"/>
     </row>
     <row r="26" spans="1:6" ht="14">
-      <c r="A26" s="169"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="174"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="116"/>
     </row>
     <row r="27" spans="1:6" ht="14">
-      <c r="A27" s="169"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="174"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="116"/>
     </row>
     <row r="28" spans="1:6" ht="14">
-      <c r="A28" s="169"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="174"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="116"/>
     </row>
     <row r="29" spans="1:6" ht="14">
-      <c r="A29" s="169"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="174"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="116"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
-      <c r="A30" s="169"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="174"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="116"/>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1">
-      <c r="A31" s="169"/>
-      <c r="B31" s="164" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="171"/>
-      <c r="D31" s="164" t="s">
+      <c r="C31" s="113"/>
+      <c r="D31" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="174"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="116"/>
     </row>
     <row r="32" spans="1:6" ht="14">
-      <c r="A32" s="169"/>
-      <c r="B32" s="165" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="171"/>
-      <c r="D32" s="165" t="s">
+      <c r="C32" s="113"/>
+      <c r="D32" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="174"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="116"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="169"/>
-      <c r="B33" s="166" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="171"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="113"/>
+      <c r="D33" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="171"/>
-      <c r="F33" s="174"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="116"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1">
-      <c r="A34" s="169"/>
-      <c r="B34" s="166" t="s">
+      <c r="A34" s="111"/>
+      <c r="B34" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="166" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="171"/>
-      <c r="F34" s="175" t="s">
+      <c r="E34" s="113"/>
+      <c r="F34" s="117" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14">
-      <c r="A35" s="169"/>
-      <c r="B35" s="166" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="171"/>
-      <c r="D35" s="168" t="s">
+      <c r="C35" s="113"/>
+      <c r="D35" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="171"/>
-      <c r="F35" s="165" t="s">
+      <c r="E35" s="113"/>
+      <c r="F35" s="107" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14">
-      <c r="A36" s="169"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="166" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="108" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14">
-      <c r="A37" s="169"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="168" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="110" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
-      <c r="A38" s="169"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="174"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="116"/>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1">
-      <c r="A39" s="169"/>
-      <c r="B39" s="164" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="171"/>
-      <c r="D39" s="164" t="s">
+      <c r="C39" s="113"/>
+      <c r="D39" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="171"/>
-      <c r="F39" s="174"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="116"/>
     </row>
     <row r="40" spans="1:6" ht="14">
-      <c r="A40" s="169"/>
-      <c r="B40" s="165" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="171"/>
-      <c r="D40" s="165" t="s">
+      <c r="C40" s="113"/>
+      <c r="D40" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="174"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="116"/>
     </row>
     <row r="41" spans="1:6" ht="14">
-      <c r="A41" s="169"/>
-      <c r="B41" s="168" t="s">
+      <c r="A41" s="111"/>
+      <c r="B41" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="171"/>
-      <c r="D41" s="166" t="s">
+      <c r="C41" s="113"/>
+      <c r="D41" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="174"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="116"/>
     </row>
     <row r="42" spans="1:6" ht="14">
-      <c r="A42" s="169"/>
-      <c r="B42" s="168" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="166" t="s">
+      <c r="C42" s="113"/>
+      <c r="D42" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="171"/>
-      <c r="F42" s="174"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="116"/>
     </row>
     <row r="43" spans="1:6" ht="14">
-      <c r="A43" s="169"/>
-      <c r="B43" s="166" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="174"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="116"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="29"/>
@@ -5462,26 +5471,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5576,43 +5585,43 @@
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -5698,7 +5707,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="163" t="s">
+      <c r="F12" s="105" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -6027,10 +6036,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="80"/>
-      <c r="E46" s="154" t="s">
+      <c r="E46" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="81" t="s">
         <v>14</v>
       </c>
@@ -6040,8 +6049,8 @@
       <c r="B47" s="90"/>
       <c r="C47" s="91"/>
       <c r="D47" s="92"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="167"/>
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -6049,8 +6058,8 @@
       <c r="B48" s="95"/>
       <c r="C48" s="96"/>
       <c r="D48" s="97"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -6058,8 +6067,8 @@
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
       <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -6067,17 +6076,17 @@
       <c r="B50" s="95"/>
       <c r="C50" s="96"/>
       <c r="D50" s="97"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="151"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="169"/>
       <c r="G50" s="98"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -6111,10 +6120,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="83"/>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="75" t="s">
         <v>17</v>
       </c>
@@ -6124,8 +6133,8 @@
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
       <c r="D55" s="92"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="160"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="167"/>
       <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -6133,8 +6142,8 @@
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
       <c r="D56" s="97"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -6142,8 +6151,8 @@
       <c r="B57" s="95"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
       <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -6151,29 +6160,21 @@
       <c r="B58" s="95"/>
       <c r="C58" s="96"/>
       <c r="D58" s="97"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="151"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
       <c r="G58" s="98"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E57:F57"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="A5:B5"/>
@@ -6184,6 +6185,14 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6277,43 +6286,43 @@
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="103" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="103" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="104"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -6380,7 +6389,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="118" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="21"/>
@@ -6719,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="80"/>
-      <c r="E45" s="154" t="s">
+      <c r="E45" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="155"/>
+      <c r="F45" s="173"/>
       <c r="G45" s="81" t="s">
         <v>14</v>
       </c>
@@ -6732,8 +6741,8 @@
       <c r="B46" s="90"/>
       <c r="C46" s="91"/>
       <c r="D46" s="92"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="160"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="167"/>
       <c r="G46" s="93"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
@@ -6741,8 +6750,8 @@
       <c r="B47" s="95"/>
       <c r="C47" s="96"/>
       <c r="D47" s="97"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="151"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="169"/>
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -6750,8 +6759,8 @@
       <c r="B48" s="95"/>
       <c r="C48" s="96"/>
       <c r="D48" s="97"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -6759,17 +6768,17 @@
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
       <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="162"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="165"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -6803,10 +6812,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="83"/>
-      <c r="E53" s="152" t="s">
+      <c r="E53" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="153"/>
+      <c r="F53" s="171"/>
       <c r="G53" s="75" t="s">
         <v>17</v>
       </c>
@@ -6816,8 +6825,8 @@
       <c r="B54" s="90"/>
       <c r="C54" s="91"/>
       <c r="D54" s="92"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="160"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="167"/>
       <c r="G54" s="93"/>
     </row>
     <row r="55" spans="1:7" s="84" customFormat="1" ht="15.75" customHeight="1">
@@ -6825,8 +6834,8 @@
       <c r="B55" s="95"/>
       <c r="C55" s="96"/>
       <c r="D55" s="97"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="151"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
       <c r="G55" s="98"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -6834,8 +6843,8 @@
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
       <c r="D56" s="97"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -6843,29 +6852,23 @@
       <c r="B57" s="95"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
       <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="162"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="165"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="60" spans="1:7" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -6878,6 +6881,12 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6971,43 +6980,43 @@
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="103" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="103" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="104"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -7099,7 +7108,7 @@
       <c r="E12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="163" t="s">
+      <c r="F12" s="105" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -7122,7 +7131,7 @@
       <c r="E13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="176" t="s">
+      <c r="F13" s="118" t="s">
         <v>136</v>
       </c>
       <c r="G13" s="21"/>
@@ -7440,10 +7449,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="80"/>
-      <c r="E46" s="154" t="s">
+      <c r="E46" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="81" t="s">
         <v>14</v>
       </c>
@@ -7453,8 +7462,8 @@
       <c r="B47" s="90"/>
       <c r="C47" s="91"/>
       <c r="D47" s="92"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="167"/>
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -7462,8 +7471,8 @@
       <c r="B48" s="95"/>
       <c r="C48" s="96"/>
       <c r="D48" s="97"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -7471,8 +7480,8 @@
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
       <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -7480,17 +7489,17 @@
       <c r="B50" s="95"/>
       <c r="C50" s="96"/>
       <c r="D50" s="97"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="151"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="169"/>
       <c r="G50" s="98"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -7524,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="83"/>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="75" t="s">
         <v>17</v>
       </c>
@@ -7537,8 +7546,8 @@
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
       <c r="D55" s="92"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="160"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="167"/>
       <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -7546,8 +7555,8 @@
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
       <c r="D56" s="97"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -7555,8 +7564,8 @@
       <c r="B57" s="95"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
       <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -7564,27 +7573,21 @@
       <c r="B58" s="95"/>
       <c r="C58" s="96"/>
       <c r="D58" s="97"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="151"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
       <c r="G58" s="98"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -7597,6 +7600,12 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7690,43 +7699,43 @@
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="103" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="103" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="104"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -8147,10 +8156,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="80"/>
-      <c r="E46" s="154" t="s">
+      <c r="E46" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="81" t="s">
         <v>14</v>
       </c>
@@ -8160,8 +8169,8 @@
       <c r="B47" s="90"/>
       <c r="C47" s="91"/>
       <c r="D47" s="92"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="167"/>
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -8169,8 +8178,8 @@
       <c r="B48" s="95"/>
       <c r="C48" s="96"/>
       <c r="D48" s="97"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -8178,8 +8187,8 @@
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
       <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -8187,17 +8196,17 @@
       <c r="B50" s="95"/>
       <c r="C50" s="96"/>
       <c r="D50" s="97"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="151"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="169"/>
       <c r="G50" s="98"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -8231,10 +8240,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="83"/>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="75" t="s">
         <v>17</v>
       </c>
@@ -8244,8 +8253,8 @@
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
       <c r="D55" s="92"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="160"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="167"/>
       <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -8253,8 +8262,8 @@
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
       <c r="D56" s="97"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -8262,8 +8271,8 @@
       <c r="B57" s="95"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
       <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -8271,27 +8280,21 @@
       <c r="B58" s="95"/>
       <c r="C58" s="96"/>
       <c r="D58" s="97"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="151"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
       <c r="G58" s="98"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -8304,6 +8307,12 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8397,43 +8406,43 @@
       <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="103" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="103" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="104"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -8854,10 +8863,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="80"/>
-      <c r="E46" s="154" t="s">
+      <c r="E46" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="81" t="s">
         <v>14</v>
       </c>
@@ -8867,8 +8876,8 @@
       <c r="B47" s="90"/>
       <c r="C47" s="91"/>
       <c r="D47" s="92"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="167"/>
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -8876,8 +8885,8 @@
       <c r="B48" s="95"/>
       <c r="C48" s="96"/>
       <c r="D48" s="97"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -8885,8 +8894,8 @@
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
       <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -8894,17 +8903,17 @@
       <c r="B50" s="95"/>
       <c r="C50" s="96"/>
       <c r="D50" s="97"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="151"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="169"/>
       <c r="G50" s="98"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -8938,10 +8947,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="83"/>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="75" t="s">
         <v>17</v>
       </c>
@@ -8951,8 +8960,8 @@
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
       <c r="D55" s="92"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="160"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="167"/>
       <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -8960,8 +8969,8 @@
       <c r="B56" s="95"/>
       <c r="C56" s="96"/>
       <c r="D56" s="97"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -8969,8 +8978,8 @@
       <c r="B57" s="95"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
       <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -8978,27 +8987,21 @@
       <c r="B58" s="95"/>
       <c r="C58" s="96"/>
       <c r="D58" s="97"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="151"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
       <c r="G58" s="98"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -9011,6 +9014,12 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
